--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank Cash Out Report.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank Cash Out Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41" xml:space="preserve">
   <si>
     <t>Agency Host Bank Cash Out</t>
   </si>
@@ -77,114 +77,77 @@
     <t>TO   </t>
   </si>
   <si>
-    <t>FUTURE TRUST 1512029          </t>
+    <t>ESPS11413431                  </t>
   </si>
   <si>
     <t>DDA (Demand Deposit Acct)</t>
   </si>
   <si>
-    <t>BBSY Initial Drawdown                             </t>
-  </si>
-  <si>
-    <t>7HEKUB60</t>
+    <t>BBSW Initial Drawdown                             </t>
+  </si>
+  <si>
+    <t>:=EKXODA</t>
   </si>
   <si>
     <t>AUSAG</t>
   </si>
   <si>
-    <t>1001659     </t>
+    <t>1001622     </t>
   </si>
   <si>
     <t>LNDR </t>
   </si>
   <si>
-    <t>PIM BILAT AUD30.0M 02APR07_12112        </t>
-  </si>
-  <si>
-    <t>CASH ADVANCE FACILITY20108    </t>
+    <t>DNR2SYN_AHBCO03122020123159UYJ          </t>
+  </si>
+  <si>
+    <t>S2TERM03122020144509JZR       </t>
   </si>
   <si>
     <t>Released</t>
   </si>
   <si>
+    <t>-UEKVS32</t>
+  </si>
+  <si>
+    <t>1000886     </t>
+  </si>
+  <si>
+    <t>DEAL_PRICING_MATRIX                     </t>
+  </si>
+  <si>
+    <t>CLASS A FACILITY              </t>
+  </si>
+  <si>
     <t>CUSTSHORT43149                </t>
   </si>
   <si>
     <t>FIXED Initial Drawdown                            </t>
   </si>
   <si>
-    <t>78EKU922</t>
-  </si>
-  <si>
-    <t>1001677     </t>
-  </si>
-  <si>
-    <t>DNR1_07122020191451YRF                  </t>
-  </si>
-  <si>
-    <t>S107122020192947FJI           </t>
-  </si>
-  <si>
-    <t>US Dollar                     </t>
-  </si>
-  <si>
-    <t>ESPS5 1611042                 </t>
-  </si>
-  <si>
-    <t>International Money Transfer</t>
-  </si>
-  <si>
-    <t>S-EKU3YB</t>
-  </si>
-  <si>
-    <t>1001634     </t>
-  </si>
-  <si>
-    <t>BNS5_04122020155856WEQ                  </t>
-  </si>
-  <si>
-    <t>S5TERM04122020162256JOW       </t>
-  </si>
-  <si>
-    <t>ESPS11413431                  </t>
-  </si>
-  <si>
-    <t>BBSW Initial Drawdown                             </t>
-  </si>
-  <si>
-    <t>S4EKU3A6</t>
-  </si>
-  <si>
-    <t>1001622     </t>
-  </si>
-  <si>
-    <t>DNR2SYN_AHBCO03122020123159UYJ          </t>
-  </si>
-  <si>
-    <t>S2TERM03122020144509JZR       </t>
-  </si>
-  <si>
-    <t>?7EKU02Q</t>
-  </si>
-  <si>
-    <t>1001654     </t>
-  </si>
-  <si>
-    <t>AHBDE_07122020162045EEF                 </t>
-  </si>
-  <si>
-    <t>S2REVOLVER07122020163647JQN   </t>
+    <t>:YEKXM68</t>
+  </si>
+  <si>
+    <t>1001705     </t>
+  </si>
+  <si>
+    <t>DNR1_09122020122410ZQG                  </t>
+  </si>
+  <si>
+    <t>S109122020125027EEI           </t>
+  </si>
+  <si>
+    <t>-)EKVTQS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#,##0.########"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -292,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -314,9 +277,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,7 +299,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -366,7 +326,7 @@
 
 <file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection/>
@@ -379,7 +339,7 @@
     <col min="3" max="3" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.556346" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.025702" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.740214" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.209569" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.944247" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.597469" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.352313" bestFit="1" customWidth="1"/>
@@ -388,7 +348,7 @@
     <col min="12" max="12" width="22.617635" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46.658758" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.801503" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.270858" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.556346" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.678924" bestFit="1" customWidth="1"/>
   </cols>
@@ -399,309 +359,260 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="12">
-        <v>3828950.55</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="11">
+        <v>600000</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14">
-        <v>44788</v>
-      </c>
-      <c r="E3" s="14">
-        <v>43738</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="13">
+        <v>44823</v>
+      </c>
+      <c r="E3" s="13">
+        <v>44819</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="16">
-        <v>44172.91554398</v>
+      <c r="Q3" s="15">
+        <v>44174.72358796</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="17">
+        <v>100000</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20">
-        <v>44788</v>
-      </c>
-      <c r="E4" s="20">
-        <v>44788</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="19">
+        <v>44823</v>
+      </c>
+      <c r="E4" s="19">
+        <v>44823</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="K4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19" t="s">
+      <c r="M4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="22">
-        <v>44172.88512731</v>
+      <c r="Q4" s="21">
+        <v>44173.67571759</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="18">
-        <v>650</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19">
+        <v>44823</v>
+      </c>
+      <c r="E5" s="19">
+        <v>44823</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="20">
-        <v>44788</v>
-      </c>
-      <c r="E5" s="20">
-        <v>44788</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="K5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="M5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="22">
-        <v>44172.80912037</v>
+      <c r="Q5" s="21">
+        <v>44174.65304398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="18">
-        <v>600000</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20">
-        <v>44788</v>
-      </c>
-      <c r="E6" s="20">
-        <v>44788</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="19">
+        <v>44823</v>
+      </c>
+      <c r="E6" s="19">
+        <v>44823</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="19" t="s">
+      <c r="N6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="22">
-        <v>44172.75417824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="18">
-        <v>600000</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20">
-        <v>44788</v>
-      </c>
-      <c r="E7" s="20">
-        <v>44788</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>44172.74315972</v>
+      <c r="Q6" s="21">
+        <v>44173.70174768</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank Cash Out Report.xlsx
+++ b/DataSet/Integration_DataSet/Extracts/DNR/DNR_Reports/Agency Host Bank Cash Out Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37" xml:space="preserve">
   <si>
     <t>Agency Host Bank Cash Out</t>
   </si>
@@ -77,67 +77,55 @@
     <t>TO   </t>
   </si>
   <si>
+    <t>FUTURE TRUST 1512029          </t>
+  </si>
+  <si>
+    <t>DDA (Demand Deposit Acct)</t>
+  </si>
+  <si>
+    <t>BBSY Initial Drawdown                             </t>
+  </si>
+  <si>
+    <t>OIEL6VFI</t>
+  </si>
+  <si>
+    <t>AUSAG</t>
+  </si>
+  <si>
+    <t>1001777     </t>
+  </si>
+  <si>
+    <t>LNDR </t>
+  </si>
+  <si>
+    <t>PIM BILAT AUD30.0M 02APR07_33131        </t>
+  </si>
+  <si>
+    <t>CASH ADVANCE FACILITY40149    </t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
     <t>ESPS11413431                  </t>
   </si>
   <si>
-    <t>DDA (Demand Deposit Acct)</t>
-  </si>
-  <si>
-    <t>BBSW Initial Drawdown                             </t>
-  </si>
-  <si>
-    <t>:=EKXODA</t>
-  </si>
-  <si>
-    <t>AUSAG</t>
+    <t>Reverse Fee                                       </t>
+  </si>
+  <si>
+    <t>TLEL6UKH</t>
   </si>
   <si>
     <t>1001622     </t>
   </si>
   <si>
-    <t>LNDR </t>
+    <t>FEEPY</t>
   </si>
   <si>
     <t>DNR2SYN_AHBCO03122020123159UYJ          </t>
   </si>
   <si>
     <t>S2TERM03122020144509JZR       </t>
-  </si>
-  <si>
-    <t>Released</t>
-  </si>
-  <si>
-    <t>-UEKVS32</t>
-  </si>
-  <si>
-    <t>1000886     </t>
-  </si>
-  <si>
-    <t>DEAL_PRICING_MATRIX                     </t>
-  </si>
-  <si>
-    <t>CLASS A FACILITY              </t>
-  </si>
-  <si>
-    <t>CUSTSHORT43149                </t>
-  </si>
-  <si>
-    <t>FIXED Initial Drawdown                            </t>
-  </si>
-  <si>
-    <t>:YEKXM68</t>
-  </si>
-  <si>
-    <t>1001705     </t>
-  </si>
-  <si>
-    <t>DNR1_09122020122410ZQG                  </t>
-  </si>
-  <si>
-    <t>S109122020125027EEI           </t>
-  </si>
-  <si>
-    <t>-)EKVTQS</t>
   </si>
 </sst>
 </file>
@@ -145,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.########"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -326,7 +314,7 @@
 
 <file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection/>
@@ -339,16 +327,16 @@
     <col min="3" max="3" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.556346" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.025702" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.209569" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.740214" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.944247" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.597469" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.332147" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.352313" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.495057" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.617635" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.617635" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.821669" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46.658758" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.270858" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.536180" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.556346" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.678924" bestFit="1" customWidth="1"/>
   </cols>
@@ -413,7 +401,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="11">
-        <v>600000</v>
+        <v>3828950.55</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>18</v>
@@ -422,10 +410,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="13">
-        <v>44823</v>
+        <v>44855</v>
       </c>
       <c r="E3" s="13">
-        <v>44819</v>
+        <v>43738</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>20</v>
@@ -459,12 +447,12 @@
         <v>29</v>
       </c>
       <c r="Q3" s="15">
-        <v>44174.72358796</v>
+        <v>44179.70888888</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="17">
-        <v>100000</v>
+        <v>302465.75</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>18</v>
@@ -473,146 +461,44 @@
         <v>19</v>
       </c>
       <c r="D4" s="19">
-        <v>44823</v>
+        <v>44855</v>
       </c>
       <c r="E4" s="19">
         <v>44823</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="21">
-        <v>44173.67571759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="19">
-        <v>44823</v>
-      </c>
-      <c r="E5" s="19">
-        <v>44823</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>44174.65304398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19">
-        <v>44823</v>
-      </c>
-      <c r="E6" s="19">
-        <v>44823</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>44173.70174768</v>
+        <v>44179.70050925</v>
       </c>
     </row>
   </sheetData>
